--- a/YRD/feature_selection/记录_YRD.xlsx
+++ b/YRD/feature_selection/记录_YRD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\YRD\feature_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EE486-5C6A-4430-98E4-3ACF4139AB7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D67D9-CD3B-47DA-A8EA-8BB6226D8061}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="11" xr2:uid="{7C1C2EC2-2635-4D58-A33F-B64F5C382C8A}"/>
+    <workbookView xWindow="5640" yWindow="5640" windowWidth="13245" windowHeight="7282" firstSheet="3" activeTab="10" xr2:uid="{7C1C2EC2-2635-4D58-A33F-B64F5C382C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="选基准项_fresh" sheetId="4" r:id="rId1"/>
@@ -409,7 +409,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -641,9 +641,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -760,10 +757,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -771,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1222,302 +1222,302 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="54">
         <v>20.152000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="54">
         <v>19.843</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="54">
         <v>20.024999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <v>19.817</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>19.797999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>19.797999999999998</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="56"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>19.853000000000002</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>-5.5E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>19.638999999999999</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="56">
         <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>19.968</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <v>-0.17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>19.995000000000001</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <v>-0.19700000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>19.798999999999999</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="56">
         <v>19.843</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="58">
         <v>19.797999999999998</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="58"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="58">
         <v>19.78</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="58">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.253</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="58">
         <v>20.276</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="58">
         <v>-0.47799999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="58">
         <v>19.347000000000001</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="58">
         <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="58">
         <v>19.731999999999999</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="58">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="58">
         <v>19.704999999999998</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="58">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="58">
         <v>19.802</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="58">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="58">
         <v>19.253</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="58"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="58">
         <v>19.334</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="58">
         <v>-8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="58">
         <v>19.54</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="58">
         <v>-0.28599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="58">
         <v>19.204000000000001</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="58">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="58">
         <v>19.181000000000001</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="58">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="58">
         <v>19.175999999999998</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="58">
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="58">
         <v>19.53</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="58">
         <v>-0.27700000000000002</v>
       </c>
     </row>
@@ -1531,1647 +1531,1647 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CE1C2-9A42-4C7C-889F-BF97550BF1FB}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="37" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60" t="s">
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="59"/>
-      <c r="V1" s="60" t="s">
+      <c r="U1" s="58"/>
+      <c r="V1" s="59" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="58">
         <v>20.231999999999999</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="58">
         <v>20.239000000000001</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="58">
         <v>20.16</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="58">
         <v>20.21</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="59">
+      <c r="R2" s="58">
         <v>20.495000000000001</v>
       </c>
-      <c r="U2" s="60" t="s">
+      <c r="U2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="59">
+      <c r="V2" s="58">
         <v>20.146999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="58">
         <v>19.954000000000001</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>19.885000000000002</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="58">
         <v>20.053000000000001</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="58">
         <v>20.007000000000001</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="58">
         <v>19.875</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="59">
+      <c r="V3" s="58">
         <v>19.864999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>19.8</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <v>20.059999999999999</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="58">
         <v>20.16</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="58">
         <v>19.844000000000001</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="59">
+      <c r="R4" s="58">
         <v>19.824000000000002</v>
       </c>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="59">
+      <c r="V4" s="58">
         <v>19.802</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="58">
         <v>19.861999999999998</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>19.856000000000002</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="58">
         <v>19.821999999999999</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="58">
         <v>19.806000000000001</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="58">
         <v>19.846</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="23">
         <v>19.753</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="58">
         <v>27.875</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="58">
         <v>20.035</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>19.699000000000002</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="23">
         <v>19.571999999999999</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <v>19.635000000000002</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="59">
+      <c r="V6" s="58">
         <v>19.785</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60" t="s">
+      <c r="I8" s="58"/>
+      <c r="J8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60" t="s">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="60" t="s">
+      <c r="S8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="59"/>
-      <c r="V8" s="60" t="s">
+      <c r="U8" s="58"/>
+      <c r="V8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="60" t="s">
+      <c r="W8" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <v>19.8</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="E9" s="60" t="s">
+      <c r="C9" s="58"/>
+      <c r="E9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="58">
         <v>19.856000000000002</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="I9" s="60" t="s">
+      <c r="G9" s="58"/>
+      <c r="I9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="58">
         <v>19.699000000000002</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="M9" s="60" t="s">
+      <c r="K9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="58">
         <v>19.571999999999999</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="Q9" s="60" t="s">
+      <c r="O9" s="58"/>
+      <c r="Q9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="58">
         <v>19.635000000000002</v>
       </c>
-      <c r="S9" s="59"/>
-      <c r="U9" s="60" t="s">
+      <c r="S9" s="58"/>
+      <c r="U9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="59">
+      <c r="V9" s="58">
         <v>19.753</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="58">
         <v>20.297999999999998</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="58">
         <v>-0.498</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="58">
         <v>20.007000000000001</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="58">
         <v>-0.15</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="58">
         <v>19.943999999999999</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="58">
         <v>-0.245</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="58">
         <v>19.786999999999999</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="58">
         <v>-0.215</v>
       </c>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="59">
+      <c r="R10" s="58">
         <v>19.692</v>
       </c>
-      <c r="S10" s="59">
+      <c r="S10" s="58">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="U10" s="60" t="s">
+      <c r="U10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="59">
+      <c r="V10" s="58">
         <v>19.780999999999999</v>
       </c>
-      <c r="W10" s="59">
+      <c r="W10" s="58">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="58">
         <v>19.794</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="58">
         <v>20.056999999999999</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="58">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="58">
         <v>19.881</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="58">
         <v>-0.182</v>
       </c>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="58">
         <v>19.850999999999999</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="58">
         <v>-0.27900000000000003</v>
       </c>
-      <c r="Q11" s="60" t="s">
+      <c r="Q11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="59">
+      <c r="R11" s="58">
         <v>19.872</v>
       </c>
-      <c r="S11" s="59">
+      <c r="S11" s="58">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="V11" s="59">
+      <c r="V11" s="58">
         <v>19.832999999999998</v>
       </c>
-      <c r="W11" s="59">
+      <c r="W11" s="58">
         <v>-0.08</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="58">
         <v>20.37</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="58">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="58">
         <v>20.300999999999998</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="58">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="58">
         <v>20.038</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="58">
         <v>-0.33900000000000002</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="58">
         <v>20.024999999999999</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="58">
         <v>-0.45300000000000001</v>
       </c>
-      <c r="Q12" s="60" t="s">
+      <c r="Q12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="58">
         <v>20.146000000000001</v>
       </c>
-      <c r="S12" s="59">
+      <c r="S12" s="58">
         <v>-0.51100000000000001</v>
       </c>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="59">
+      <c r="V12" s="58">
         <v>20.145</v>
       </c>
-      <c r="W12" s="59">
+      <c r="W12" s="58">
         <v>-0.39200000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="58">
         <v>19.98</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="58">
         <v>-0.18</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="58">
         <v>19.957000000000001</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="58">
         <v>-0.1</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="58">
         <v>20.111000000000001</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="58">
         <v>-0.41199999999999998</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="58">
         <v>19.786999999999999</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="58">
         <v>-0.215</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="58">
         <v>19.79</v>
       </c>
-      <c r="S13" s="59">
+      <c r="S13" s="58">
         <v>-0.156</v>
       </c>
-      <c r="U13" s="60" t="s">
+      <c r="U13" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="59">
+      <c r="V13" s="58">
         <v>19.841000000000001</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="58">
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="58">
         <v>19.858000000000001</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="58">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="58">
         <v>19.742999999999999</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="58">
         <v>0.114</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="58">
         <v>19.882999999999999</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="58">
         <v>-0.184</v>
       </c>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="59">
+      <c r="N14" s="58">
         <v>19.786000000000001</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="58">
         <v>-0.214</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="59">
+      <c r="R14" s="58">
         <v>19.745999999999999</v>
       </c>
-      <c r="S14" s="59">
+      <c r="S14" s="58">
         <v>-0.112</v>
       </c>
-      <c r="U14" s="60" t="s">
+      <c r="U14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="59">
+      <c r="V14" s="58">
         <v>19.824999999999999</v>
       </c>
-      <c r="W14" s="59">
+      <c r="W14" s="58">
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="58">
         <v>19.693999999999999</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="58">
         <v>0.106</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="58">
         <v>19.841999999999999</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="58">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="58">
         <v>19.888000000000002</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="58">
         <v>-0.189</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="58">
         <v>19.805</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="58">
         <v>-0.23400000000000001</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="59">
+      <c r="R15" s="58">
         <v>19.664000000000001</v>
       </c>
-      <c r="S15" s="59">
+      <c r="S15" s="58">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="U15" s="60" t="s">
+      <c r="U15" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="V15" s="59">
+      <c r="V15" s="58">
         <v>19.655000000000001</v>
       </c>
-      <c r="W15" s="59">
+      <c r="W15" s="58">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60" t="s">
+      <c r="I17" s="58"/>
+      <c r="J17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60" t="s">
+      <c r="M17" s="58"/>
+      <c r="N17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60" t="s">
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="60" t="s">
+      <c r="S17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="U17" s="59"/>
-      <c r="V17" s="60" t="s">
+      <c r="U17" s="58"/>
+      <c r="V17" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="W17" s="60" t="s">
+      <c r="W17" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="58">
         <v>19.8</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="E18" s="60" t="s">
+      <c r="C18" s="58"/>
+      <c r="E18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="58">
         <v>19.856000000000002</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="I18" s="60" t="s">
+      <c r="G18" s="58"/>
+      <c r="I18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="58">
         <v>19.699000000000002</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="M18" s="60" t="s">
+      <c r="K18" s="58"/>
+      <c r="M18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="58">
         <v>19.571999999999999</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="Q18" s="60" t="s">
+      <c r="O18" s="58"/>
+      <c r="Q18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="59">
+      <c r="R18" s="58">
         <v>19.635000000000002</v>
       </c>
-      <c r="S18" s="59"/>
-      <c r="U18" s="60" t="s">
+      <c r="S18" s="58"/>
+      <c r="U18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="59">
+      <c r="V18" s="58">
         <v>19.753</v>
       </c>
-      <c r="W18" s="59"/>
+      <c r="W18" s="58"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="58">
         <v>20.321000000000002</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="58">
         <v>-0.52200000000000002</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="58">
         <v>20.164000000000001</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="58">
         <v>-0.308</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="58">
         <v>20.259</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="58">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="58">
         <v>19.908999999999999</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="58">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="Q19" s="60" t="s">
+      <c r="Q19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="59">
+      <c r="R19" s="58">
         <v>19.858000000000001</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="58">
         <v>-0.224</v>
       </c>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="V19" s="59">
+      <c r="V19" s="58">
         <v>20.100999999999999</v>
       </c>
-      <c r="W19" s="59">
+      <c r="W19" s="58">
         <v>-0.34799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.338999999999999</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.46100000000000002</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="58">
         <v>19.399000000000001</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="58">
         <v>0.45700000000000002</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="23">
         <v>19.375</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="23">
         <v>0.32500000000000001</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <v>19.326000000000001</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <v>0.245</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="23">
         <v>19.152000000000001</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="23">
         <v>0.48299999999999998</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="U20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="24">
+      <c r="V20" s="23">
         <v>19.361000000000001</v>
       </c>
-      <c r="W20" s="24">
+      <c r="W20" s="23">
         <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="58">
         <v>19.986000000000001</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="58">
         <v>-0.186</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="58">
         <v>20.582000000000001</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="58">
         <v>-0.72599999999999998</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="58">
         <v>20.428999999999998</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="58">
         <v>-0.73</v>
       </c>
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="58">
         <v>20.05</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="58">
         <v>-0.47799999999999998</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="59">
+      <c r="R21" s="58">
         <v>19.901</v>
       </c>
-      <c r="S21" s="59">
+      <c r="S21" s="58">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="U21" s="60" t="s">
+      <c r="U21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="59">
+      <c r="V21" s="58">
         <v>20.198</v>
       </c>
-      <c r="W21" s="59">
+      <c r="W21" s="58">
         <v>-0.44500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="58">
         <v>19.445</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="58">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>19.241</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>0.61599999999999999</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="58">
         <v>19.483000000000001</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="58">
         <v>0.216</v>
       </c>
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="58">
         <v>19.352</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="58">
         <v>0.22</v>
       </c>
-      <c r="Q22" s="60" t="s">
+      <c r="Q22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="59">
+      <c r="R22" s="58">
         <v>19.350000000000001</v>
       </c>
-      <c r="S22" s="59">
+      <c r="S22" s="58">
         <v>0.28499999999999998</v>
       </c>
-      <c r="U22" s="60" t="s">
+      <c r="U22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="V22" s="59">
+      <c r="V22" s="58">
         <v>19.382999999999999</v>
       </c>
-      <c r="W22" s="59">
+      <c r="W22" s="58">
         <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="58">
         <v>20.068999999999999</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="58">
         <v>-0.26900000000000002</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="58">
         <v>19.849</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="58">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="58">
         <v>19.722999999999999</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="58">
         <v>-2.4E-2</v>
       </c>
-      <c r="M23" s="60" t="s">
+      <c r="M23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="58">
         <v>19.599</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="58">
         <v>-2.7E-2</v>
       </c>
-      <c r="Q23" s="60" t="s">
+      <c r="Q23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="59">
+      <c r="R23" s="58">
         <v>19.91</v>
       </c>
-      <c r="S23" s="59">
+      <c r="S23" s="58">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="U23" s="60" t="s">
+      <c r="U23" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="V23" s="59">
+      <c r="V23" s="58">
         <v>19.774999999999999</v>
       </c>
-      <c r="W23" s="59">
+      <c r="W23" s="58">
         <v>-2.3E-2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="58">
         <v>19.864999999999998</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="58">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="58">
         <v>19.821999999999999</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="58">
         <v>19.841000000000001</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="58">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="M24" s="60" t="s">
+      <c r="M24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="58">
         <v>19.5</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="58">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="59">
+      <c r="R24" s="58">
         <v>19.745999999999999</v>
       </c>
-      <c r="S24" s="59">
+      <c r="S24" s="58">
         <v>-0.111</v>
       </c>
-      <c r="U24" s="60" t="s">
+      <c r="U24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="V24" s="59">
+      <c r="V24" s="58">
         <v>19.971</v>
       </c>
-      <c r="W24" s="59">
+      <c r="W24" s="58">
         <v>-0.218</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="58">
         <v>19.93</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="58">
         <v>-0.13</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="58">
         <v>20.09</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="58">
         <v>-0.23400000000000001</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="58">
         <v>19.884</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="58">
         <v>-0.185</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="58">
         <v>19.847999999999999</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="58">
         <v>-0.27600000000000002</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="59">
+      <c r="R25" s="58">
         <v>19.838000000000001</v>
       </c>
-      <c r="S25" s="59">
+      <c r="S25" s="58">
         <v>-0.20300000000000001</v>
       </c>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="V25" s="59">
+      <c r="V25" s="58">
         <v>19.68</v>
       </c>
-      <c r="W25" s="59">
+      <c r="W25" s="58">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="58">
         <v>20.056000000000001</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="58">
         <v>-0.25600000000000001</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="58">
         <v>19.241</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="I26" s="60" t="s">
+      <c r="G26" s="58"/>
+      <c r="I26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="58">
         <v>19.375</v>
       </c>
-      <c r="K26" s="59"/>
-      <c r="M26" s="60" t="s">
+      <c r="K26" s="58"/>
+      <c r="M26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="58">
         <v>19.326000000000001</v>
       </c>
-      <c r="O26" s="59"/>
-      <c r="Q26" s="60" t="s">
+      <c r="O26" s="58"/>
+      <c r="Q26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R26" s="59">
+      <c r="R26" s="58">
         <v>19.152000000000001</v>
       </c>
-      <c r="S26" s="59"/>
-      <c r="U26" s="60" t="s">
+      <c r="S26" s="58"/>
+      <c r="U26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="59">
+      <c r="V26" s="58">
         <v>19.361000000000001</v>
       </c>
-      <c r="W26" s="59"/>
+      <c r="W26" s="58"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="58">
         <v>19.338999999999999</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="E27" s="60" t="s">
+      <c r="C27" s="58"/>
+      <c r="E27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="58">
         <v>19.707000000000001</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="58">
         <v>-0.46700000000000003</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="58">
         <v>19.611000000000001</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="58">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="58">
         <v>19.587</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="58">
         <v>-0.26</v>
       </c>
-      <c r="Q27" s="60" t="s">
+      <c r="Q27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="59">
+      <c r="R27" s="58">
         <v>19.555</v>
       </c>
-      <c r="S27" s="59">
+      <c r="S27" s="58">
         <v>-0.40300000000000002</v>
       </c>
-      <c r="U27" s="60" t="s">
+      <c r="U27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="V27" s="59">
+      <c r="V27" s="58">
         <v>19.463999999999999</v>
       </c>
-      <c r="W27" s="59">
+      <c r="W27" s="58">
         <v>-0.10199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="58">
         <v>19.699000000000002</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="58">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="58">
         <v>19.164999999999999</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="58">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="58">
         <v>19.48</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="58">
         <v>-0.106</v>
       </c>
-      <c r="M28" s="60" t="s">
+      <c r="M28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="59">
+      <c r="N28" s="58">
         <v>19.568999999999999</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="58">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="Q28" s="60" t="s">
+      <c r="Q28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="59">
+      <c r="R28" s="58">
         <v>19.789000000000001</v>
       </c>
-      <c r="S28" s="59">
+      <c r="S28" s="58">
         <v>-0.63700000000000001</v>
       </c>
-      <c r="U28" s="60" t="s">
+      <c r="U28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="V28" s="59">
+      <c r="V28" s="58">
         <v>19.672000000000001</v>
       </c>
-      <c r="W28" s="59">
+      <c r="W28" s="58">
         <v>-0.311</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="58">
         <v>19.931999999999999</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="58">
         <v>-0.59299999999999997</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="58">
         <v>19.765999999999998</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="58">
         <v>-0.52500000000000002</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="23">
         <v>19.137</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="23">
         <v>0.23799999999999999</v>
       </c>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="59">
+      <c r="N29" s="58">
         <v>19.181000000000001</v>
       </c>
-      <c r="O29" s="59">
+      <c r="O29" s="58">
         <v>0.14599999999999999</v>
       </c>
-      <c r="Q29" s="60" t="s">
+      <c r="Q29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="59">
+      <c r="R29" s="58">
         <v>19.173999999999999</v>
       </c>
-      <c r="S29" s="59">
+      <c r="S29" s="58">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="U29" s="60" t="s">
+      <c r="U29" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="59">
+      <c r="V29" s="58">
         <v>19.367000000000001</v>
       </c>
-      <c r="W29" s="59">
+      <c r="W29" s="58">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>19.038</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="58">
         <v>27.885000000000002</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="58">
         <v>-8.6449999999999996</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="59">
+      <c r="J30" s="58">
         <v>19.254999999999999</v>
       </c>
-      <c r="K30" s="59">
+      <c r="K30" s="58">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M30" s="60" t="s">
+      <c r="M30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="59">
+      <c r="N30" s="58">
         <v>19.323</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="58">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Q30" s="60" t="s">
+      <c r="Q30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="59">
+      <c r="R30" s="58">
         <v>19.286000000000001</v>
       </c>
-      <c r="S30" s="59">
+      <c r="S30" s="58">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="U30" s="60" t="s">
+      <c r="U30" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="V30" s="59">
+      <c r="V30" s="58">
         <v>19.256</v>
       </c>
-      <c r="W30" s="59">
+      <c r="W30" s="58">
         <v>0.106</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="58">
         <v>19.256</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="58">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="58">
         <v>19.347000000000001</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="58">
         <v>-0.107</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J31" s="58">
         <v>19.363</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="58">
         <v>1.2E-2</v>
       </c>
-      <c r="M31" s="60" t="s">
+      <c r="M31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="58">
         <v>19.449000000000002</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="58">
         <v>-0.123</v>
       </c>
-      <c r="Q31" s="60" t="s">
+      <c r="Q31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R31" s="59">
+      <c r="R31" s="58">
         <v>19.327000000000002</v>
       </c>
-      <c r="S31" s="59">
+      <c r="S31" s="58">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="U31" s="60" t="s">
+      <c r="U31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="V31" s="59">
+      <c r="V31" s="58">
         <v>19.646999999999998</v>
       </c>
-      <c r="W31" s="59">
+      <c r="W31" s="58">
         <v>-0.28599999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="58">
         <v>19.417999999999999</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="58">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="58">
         <v>19.538</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="58">
         <v>-0.29699999999999999</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="58">
         <v>19.382000000000001</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="58">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="M32" s="60" t="s">
+      <c r="M32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="58">
         <v>19.170000000000002</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="58">
         <v>0.157</v>
       </c>
-      <c r="Q32" s="60" t="s">
+      <c r="Q32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="R32" s="59">
+      <c r="R32" s="58">
         <v>19.443999999999999</v>
       </c>
-      <c r="S32" s="59">
+      <c r="S32" s="58">
         <v>-0.29199999999999998</v>
       </c>
-      <c r="U32" s="60" t="s">
+      <c r="U32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="59">
+      <c r="V32" s="58">
         <v>19.449000000000002</v>
       </c>
-      <c r="W32" s="59">
+      <c r="W32" s="58">
         <v>-8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="58">
         <v>19.501999999999999</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="58">
         <v>-0.16300000000000001</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="58">
         <v>19.137</v>
       </c>
-      <c r="K33" s="59"/>
+      <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="59">
+      <c r="B34" s="58">
         <v>19.506</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="58">
         <v>-0.16700000000000001</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="59">
+      <c r="J34" s="58">
         <v>19.437000000000001</v>
       </c>
-      <c r="K34" s="59">
+      <c r="K34" s="58">
         <v>-0.3</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="58">
         <v>19.038</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="I35" s="60" t="s">
+      <c r="C35" s="58"/>
+      <c r="I35" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="58">
         <v>19.236999999999998</v>
       </c>
-      <c r="K35" s="59">
+      <c r="K35" s="58">
         <v>-0.10100000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="59">
+      <c r="B36" s="58">
         <v>19.599</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="58">
         <v>-0.56100000000000005</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="59">
+      <c r="J36" s="58">
         <v>19.431999999999999</v>
       </c>
-      <c r="K36" s="59">
+      <c r="K36" s="58">
         <v>-0.29499999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="59">
+      <c r="B37" s="58">
         <v>19.436</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="58">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="59">
+      <c r="J37" s="58">
         <v>19.193000000000001</v>
       </c>
-      <c r="K37" s="59">
+      <c r="K37" s="58">
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="59">
+      <c r="B38" s="58">
         <v>19.289000000000001</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="58">
         <v>-0.251</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="59">
+      <c r="J38" s="58">
         <v>19.347999999999999</v>
       </c>
-      <c r="K38" s="59">
+      <c r="K38" s="58">
         <v>-0.21199999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="58">
         <v>19.132999999999999</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="58">
         <v>-9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="59">
+      <c r="B40" s="58">
         <v>19.204999999999998</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="58">
         <v>-0.16700000000000001</v>
       </c>
       <c r="P40" t="s">
@@ -3179,13 +3179,13 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="59">
+      <c r="B41" s="58">
         <v>19.48</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="58">
         <v>-0.442</v>
       </c>
     </row>
@@ -3199,1635 +3199,1635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DB7279-438E-4749-A8D1-469553212916}">
   <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1328125" defaultRowHeight="62.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="61" t="s">
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="71" t="s">
+      <c r="AE1" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="71">
+      <c r="AF1" s="70">
         <v>1</v>
       </c>
-      <c r="AG1" s="71" t="s">
+      <c r="AG1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
     </row>
     <row r="2" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="68">
         <v>1</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="68">
         <v>0.6</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="68">
         <v>0.4</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="68">
         <v>0.39</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="68">
         <v>0.24</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="68">
         <v>-0.1</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="68">
         <v>0.02</v>
       </c>
-      <c r="I2" s="69">
+      <c r="I2" s="68">
         <v>0.04</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="68">
         <v>-0.04</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="68">
         <v>-0.1</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="68">
         <v>-0.06</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="68">
         <v>-0.06</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="O2" s="69">
+      <c r="O2" s="68">
         <v>0.13</v>
       </c>
-      <c r="P2" s="69">
+      <c r="P2" s="68">
         <v>-0.03</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="68">
         <v>0.1</v>
       </c>
-      <c r="R2" s="69">
+      <c r="R2" s="68">
         <v>0.04</v>
       </c>
-      <c r="S2" s="69">
+      <c r="S2" s="68">
         <v>-0.02</v>
       </c>
-      <c r="T2" s="69">
+      <c r="T2" s="68">
         <v>0.03</v>
       </c>
-      <c r="U2" s="69">
+      <c r="U2" s="68">
         <v>0.09</v>
       </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="61" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="71">
+      <c r="AF2" s="70">
         <v>2</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AG2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
     </row>
     <row r="3" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="68">
         <v>0.6</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="68">
         <v>1</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <v>0.26</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="68">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="68">
         <v>0.13</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="68">
         <v>-0.11</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="68">
         <v>0</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="68">
         <v>0.05</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="68">
         <v>-0.05</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="68">
         <v>-0.08</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="68">
         <v>-0.03</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="68">
         <v>-0.02</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="68">
         <v>-0.03</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="68">
         <v>0.11</v>
       </c>
-      <c r="P3" s="69">
+      <c r="P3" s="68">
         <v>0</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="68">
         <v>0.11</v>
       </c>
-      <c r="R3" s="69">
+      <c r="R3" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="69">
+      <c r="S3" s="68">
         <v>0</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="68">
         <v>0.03</v>
       </c>
-      <c r="U3" s="69">
+      <c r="U3" s="68">
         <v>0.09</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="61" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="AF3" s="71">
+      <c r="AF3" s="70">
         <v>3</v>
       </c>
-      <c r="AG3" s="71" t="s">
+      <c r="AG3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
     </row>
     <row r="4" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="68">
         <v>0.4</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="68">
         <v>0.26</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="68">
         <v>1</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>0.21</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="68">
         <v>0.12</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="68">
         <v>0.09</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="68">
         <v>-0.17</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="68">
         <v>0.08</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="68">
         <v>-0.01</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="68">
         <v>-0.02</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="68">
         <v>0.01</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="69">
         <v>0.49</v>
       </c>
-      <c r="N4" s="70">
+      <c r="N4" s="69">
         <v>0.42</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="68">
         <v>-0.05</v>
       </c>
-      <c r="P4" s="69">
+      <c r="P4" s="68">
         <v>-0.19</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="68">
         <v>-0.27</v>
       </c>
-      <c r="R4" s="69">
+      <c r="R4" s="68">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="S4" s="69">
+      <c r="S4" s="68">
         <v>-0.23</v>
       </c>
-      <c r="T4" s="69">
+      <c r="T4" s="68">
         <v>-0.05</v>
       </c>
-      <c r="U4" s="69">
+      <c r="U4" s="68">
         <v>0.06</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="61" t="s">
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="71">
+      <c r="AF4" s="70">
         <v>4</v>
       </c>
-      <c r="AG4" s="71" t="s">
+      <c r="AG4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
     </row>
     <row r="5" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="68">
         <v>0.39</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="68">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="68">
         <v>0.21</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="68">
         <v>1</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="69">
         <v>0.48</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="69">
         <v>-0.45</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="68">
         <v>-0.09</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="68">
         <v>-0.09</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="68">
         <v>-0.03</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="68">
         <v>-0.19</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="68">
         <v>-0.16</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="68">
         <v>0.05</v>
       </c>
-      <c r="P5" s="69">
+      <c r="P5" s="68">
         <v>0.06</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="68">
         <v>0.24</v>
       </c>
-      <c r="R5" s="69">
+      <c r="R5" s="68">
         <v>0.06</v>
       </c>
-      <c r="S5" s="69">
+      <c r="S5" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T5" s="69">
+      <c r="T5" s="68">
         <v>-0.03</v>
       </c>
-      <c r="U5" s="69">
+      <c r="U5" s="68">
         <v>0.01</v>
       </c>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="61" t="s">
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="71">
+      <c r="AF5" s="70">
         <v>5</v>
       </c>
-      <c r="AG5" s="71" t="s">
+      <c r="AG5" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
     </row>
     <row r="6" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="68">
         <v>0.24</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="68">
         <v>0.13</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="68">
         <v>0.12</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="69">
         <v>0.48</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="68">
         <v>1</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="68">
         <v>-0.1</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="68">
         <v>-0.04</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="68">
         <v>-0.08</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="68">
         <v>-0.03</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="68">
         <v>0.01</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="68">
         <v>-0.01</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="68">
         <v>-0.04</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="68">
         <v>-0.72</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="68">
         <v>-0.05</v>
       </c>
-      <c r="P6" s="69">
+      <c r="P6" s="68">
         <v>0.06</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R6" s="69">
+      <c r="R6" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="S6" s="69">
+      <c r="S6" s="68">
         <v>-0.01</v>
       </c>
-      <c r="T6" s="69">
+      <c r="T6" s="68">
         <v>0.02</v>
       </c>
-      <c r="U6" s="69">
+      <c r="U6" s="68">
         <v>-0.01</v>
       </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AF6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AF6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
     </row>
     <row r="7" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="68">
         <v>-0.1</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="68">
         <v>-0.11</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="68">
         <v>0.09</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="69">
         <v>-0.45</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="68">
         <v>-0.1</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <v>1</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="68">
         <v>-0.11</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="68">
         <v>0.19</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="68">
         <v>-0.01</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="68">
         <v>0.02</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="68">
         <v>0.01</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="68">
         <v>0.01</v>
       </c>
-      <c r="O7" s="70">
+      <c r="O7" s="69">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="68">
         <v>0.04</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="68">
         <v>-0.3</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="68">
         <v>-0.06</v>
       </c>
-      <c r="S7" s="69">
+      <c r="S7" s="68">
         <v>-0.11</v>
       </c>
-      <c r="T7" s="69">
+      <c r="T7" s="68">
         <v>0.02</v>
       </c>
-      <c r="U7" s="69">
+      <c r="U7" s="68">
         <v>-0.03</v>
       </c>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="61" t="s">
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
     </row>
     <row r="8" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="68">
         <v>0.02</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="68">
         <v>0</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="68">
         <v>-0.17</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="68">
         <v>-0.04</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="68">
         <v>-0.11</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="68">
         <v>1</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="68">
         <v>-0.23</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="68">
         <v>-0.02</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="68">
         <v>-0.13</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="68">
         <v>0.02</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="68">
         <v>-0.11</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="68">
         <v>-0.13</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="68">
         <v>-0.03</v>
       </c>
-      <c r="P8" s="69">
+      <c r="P8" s="68">
         <v>0.09</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="68">
         <v>0.11</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="68">
         <v>0.17</v>
       </c>
-      <c r="S8" s="69">
+      <c r="S8" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T8" s="69">
+      <c r="T8" s="68">
         <v>-0.31</v>
       </c>
-      <c r="U8" s="69">
+      <c r="U8" s="68">
         <v>-0.35</v>
       </c>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="61" t="s">
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
     </row>
     <row r="9" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="68">
         <v>0.04</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="68">
         <v>0.05</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="68">
         <v>0.08</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <v>-0.09</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <v>-0.08</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="68">
         <v>0.19</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="68">
         <v>-0.23</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="68">
         <v>1</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="68">
         <v>-0.08</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="68">
         <v>-0.32</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="68">
         <v>-0.16</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="68">
         <v>0.02</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="68">
         <v>0.11</v>
       </c>
-      <c r="O9" s="69">
+      <c r="O9" s="68">
         <v>-0.2</v>
       </c>
-      <c r="P9" s="69">
+      <c r="P9" s="68">
         <v>0.15</v>
       </c>
-      <c r="Q9" s="70">
+      <c r="Q9" s="69">
         <v>-0.45</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="68">
         <v>0.34</v>
       </c>
-      <c r="S9" s="69">
+      <c r="S9" s="68">
         <v>0.05</v>
       </c>
-      <c r="T9" s="69">
+      <c r="T9" s="68">
         <v>0.02</v>
       </c>
-      <c r="U9" s="69">
+      <c r="U9" s="68">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="61" t="s">
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
     </row>
     <row r="10" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="68">
         <v>-0.04</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="68">
         <v>-0.05</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="68">
         <v>-0.01</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="68">
         <v>-0.03</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="68">
         <v>-0.02</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="68">
         <v>-0.08</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="68">
         <v>1</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="68">
         <v>-0.05</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="68">
         <v>0.02</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="68">
         <v>0.03</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="68">
         <v>0</v>
       </c>
-      <c r="O10" s="69">
+      <c r="O10" s="68">
         <v>-0.01</v>
       </c>
-      <c r="P10" s="69">
+      <c r="P10" s="68">
         <v>0.05</v>
       </c>
-      <c r="Q10" s="69">
+      <c r="Q10" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R10" s="69">
+      <c r="R10" s="68">
         <v>-0.21</v>
       </c>
-      <c r="S10" s="69">
+      <c r="S10" s="68">
         <v>0.04</v>
       </c>
-      <c r="T10" s="69">
+      <c r="T10" s="68">
         <v>-0.12</v>
       </c>
-      <c r="U10" s="69">
+      <c r="U10" s="68">
         <v>0.03</v>
       </c>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="61" t="s">
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
     </row>
     <row r="11" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="68">
         <v>-0.1</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="68">
         <v>-0.08</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="68">
         <v>-0.02</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="68">
         <v>-0.09</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="68">
         <v>0.01</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="68">
         <v>-0.01</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="68">
         <v>-0.13</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="68">
         <v>-0.32</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="68">
         <v>-0.05</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="68">
         <v>1</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="68">
         <v>0.04</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="68">
         <v>0.03</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="68">
         <v>-0.01</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="68">
         <v>0.01</v>
       </c>
-      <c r="P11" s="69">
+      <c r="P11" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="68">
         <v>0.04</v>
       </c>
-      <c r="R11" s="69">
+      <c r="R11" s="68">
         <v>-0.63</v>
       </c>
-      <c r="S11" s="69">
+      <c r="S11" s="68">
         <v>-0.05</v>
       </c>
-      <c r="T11" s="69">
+      <c r="T11" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U11" s="69">
+      <c r="U11" s="68">
         <v>0.05</v>
       </c>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="61"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="60"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
     </row>
     <row r="12" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="68">
         <v>-0.06</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="68">
         <v>-0.03</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="68">
         <v>0.01</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="68">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="68">
         <v>-0.01</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="68">
         <v>0.02</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="68">
         <v>0.02</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="68">
         <v>-0.16</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="68">
         <v>0.02</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="68">
         <v>0.04</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="68">
         <v>1</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="68">
         <v>0.01</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="68">
         <v>0.02</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="68">
         <v>0.03</v>
       </c>
-      <c r="P12" s="69">
+      <c r="P12" s="68">
         <v>-0.15</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="68">
         <v>0.1</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="68">
         <v>-0.12</v>
       </c>
-      <c r="S12" s="69">
+      <c r="S12" s="68">
         <v>-0.68</v>
       </c>
-      <c r="T12" s="69">
+      <c r="T12" s="68">
         <v>0.03</v>
       </c>
-      <c r="U12" s="69">
+      <c r="U12" s="68">
         <v>0.18</v>
       </c>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="61" t="s">
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" s="71" t="s">
+      <c r="AE12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="AF12" s="72">
+      <c r="AF12" s="71">
         <v>1</v>
       </c>
-      <c r="AG12" s="71" t="s">
+      <c r="AG12" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
     </row>
     <row r="13" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="69">
+      <c r="B13" s="68">
         <v>-0.06</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="68">
         <v>-0.02</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="69">
         <v>0.49</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>-0.19</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="68">
         <v>-0.04</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="68">
         <v>0.01</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="68">
         <v>-0.11</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="68">
         <v>0.02</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="68">
         <v>0.03</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="68">
         <v>0.03</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="68">
         <v>0.01</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="68">
         <v>1</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="69">
         <v>0.47</v>
       </c>
-      <c r="O13" s="69">
+      <c r="O13" s="68">
         <v>-0.19</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="68">
         <v>-0.17</v>
       </c>
-      <c r="Q13" s="69">
+      <c r="Q13" s="68">
         <v>-0.25</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="68">
         <v>-0.19</v>
       </c>
-      <c r="S13" s="69">
+      <c r="S13" s="68">
         <v>-0.12</v>
       </c>
-      <c r="T13" s="69">
+      <c r="T13" s="68">
         <v>-0.12</v>
       </c>
-      <c r="U13" s="69">
+      <c r="U13" s="68">
         <v>-0.06</v>
       </c>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="61" t="s">
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AF13" s="72">
+      <c r="AF13" s="71">
         <v>2</v>
       </c>
-      <c r="AG13" s="71" t="s">
+      <c r="AG13" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="68">
         <v>-0.03</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="69">
         <v>0.42</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="68">
         <v>-0.16</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="68">
         <v>-0.72</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="68">
         <v>0.01</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="68">
         <v>-0.13</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="68">
         <v>0.11</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="68">
         <v>0</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="68">
         <v>-0.01</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="68">
         <v>0.02</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="69">
         <v>0.47</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="68">
         <v>1</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="68">
         <v>-0.04</v>
       </c>
-      <c r="P14" s="69">
+      <c r="P14" s="68">
         <v>-0.3</v>
       </c>
-      <c r="Q14" s="69">
+      <c r="Q14" s="68">
         <v>-0.27</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="68">
         <v>-0.05</v>
       </c>
-      <c r="S14" s="69">
+      <c r="S14" s="68">
         <v>-0.15</v>
       </c>
-      <c r="T14" s="69">
+      <c r="T14" s="68">
         <v>0</v>
       </c>
-      <c r="U14" s="69">
+      <c r="U14" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AF14" s="72">
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AF14" s="71">
         <v>3</v>
       </c>
-      <c r="AG14" s="71" t="s">
+      <c r="AG14" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="68">
         <v>0.13</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="68">
         <v>0.11</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>-0.05</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>0.05</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="68">
         <v>-0.05</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="69">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="68">
         <v>-0.03</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="68">
         <v>-0.2</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="68">
         <v>-0.01</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="68">
         <v>0.01</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="68">
         <v>0.03</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="68">
         <v>-0.19</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="68">
         <v>-0.04</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="68">
         <v>1</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="68">
         <v>-0.22</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="69">
         <v>0.43</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="68">
         <v>0.03</v>
       </c>
-      <c r="S15" s="69">
+      <c r="S15" s="68">
         <v>-0.09</v>
       </c>
-      <c r="T15" s="69">
+      <c r="T15" s="68">
         <v>0.3</v>
       </c>
-      <c r="U15" s="69">
+      <c r="U15" s="68">
         <v>0.47</v>
       </c>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AF15" s="72">
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AF15" s="71">
         <v>4</v>
       </c>
-      <c r="AG15" s="71" t="s">
+      <c r="AG15" s="70" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="68">
         <v>-0.03</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="68">
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="68">
         <v>-0.19</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="68">
         <v>0.06</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="68">
         <v>0.06</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="68">
         <v>0.04</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="68">
         <v>0.09</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="68">
         <v>0.15</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="68">
         <v>0.05</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="68">
         <v>-0.15</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="68">
         <v>-0.17</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="68">
         <v>-0.3</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="68">
         <v>-0.22</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="68">
         <v>1</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="68">
         <v>0</v>
       </c>
-      <c r="S16" s="69">
+      <c r="S16" s="68">
         <v>0.37</v>
       </c>
-      <c r="T16" s="70">
+      <c r="T16" s="69">
         <v>-0.53</v>
       </c>
-      <c r="U16" s="69">
+      <c r="U16" s="68">
         <v>-0.51</v>
       </c>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AF16" s="72">
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AF16" s="71">
         <v>5</v>
       </c>
-      <c r="AG16" s="71" t="s">
+      <c r="AG16" s="70" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="68">
         <v>0.1</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="68">
         <v>0.11</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="68">
         <v>-0.27</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="68">
         <v>0.24</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="68">
         <v>-0.3</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="68">
         <v>0.11</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="69">
         <v>-0.45</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="68">
         <v>0.04</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="68">
         <v>0.1</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="68">
         <v>-0.25</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="68">
         <v>-0.27</v>
       </c>
-      <c r="O17" s="70">
+      <c r="O17" s="69">
         <v>0.43</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="68">
         <v>1</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="S17" s="69">
+      <c r="S17" s="68">
         <v>0.08</v>
       </c>
-      <c r="T17" s="69">
+      <c r="T17" s="68">
         <v>0.05</v>
       </c>
-      <c r="U17" s="70">
+      <c r="U17" s="69">
         <v>0.39</v>
       </c>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AF17" s="72"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AF17" s="71"/>
     </row>
     <row r="18" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="68">
         <v>0.04</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="68">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="68">
         <v>0.06</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="68">
         <v>-0.06</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="68">
         <v>0.17</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="68">
         <v>0.34</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="68">
         <v>-0.21</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="68">
         <v>-0.63</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="68">
         <v>-0.12</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="68">
         <v>-0.19</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="68">
         <v>-0.05</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="68">
         <v>0.03</v>
       </c>
-      <c r="P18" s="69">
+      <c r="P18" s="68">
         <v>0</v>
       </c>
-      <c r="Q18" s="69">
+      <c r="Q18" s="68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="R18" s="69">
+      <c r="R18" s="68">
         <v>1</v>
       </c>
-      <c r="S18" s="69">
+      <c r="S18" s="68">
         <v>0.16</v>
       </c>
-      <c r="T18" s="69">
+      <c r="T18" s="68">
         <v>0.15</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="68">
         <v>-0.05</v>
       </c>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AF18" s="72"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AF18" s="71"/>
     </row>
     <row r="19" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="68">
         <v>-0.02</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="68">
         <v>0</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="68">
         <v>-0.23</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="68">
         <v>-0.01</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="68">
         <v>-0.11</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="68">
         <v>0.05</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="68">
         <v>0.04</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="68">
         <v>-0.05</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="68">
         <v>-0.68</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="68">
         <v>-0.12</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="68">
         <v>-0.15</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O19" s="68">
         <v>-0.09</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="68">
         <v>0.37</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q19" s="68">
         <v>0.08</v>
       </c>
-      <c r="R19" s="69">
+      <c r="R19" s="68">
         <v>0.16</v>
       </c>
-      <c r="S19" s="69">
+      <c r="S19" s="68">
         <v>1</v>
       </c>
-      <c r="T19" s="69">
+      <c r="T19" s="68">
         <v>-0.24</v>
       </c>
-      <c r="U19" s="69">
+      <c r="U19" s="68">
         <v>-0.34</v>
       </c>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AF19" s="72"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AF19" s="71"/>
     </row>
     <row r="20" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="68">
         <v>0.03</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="68">
         <v>0.03</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="68">
         <v>-0.05</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="68">
         <v>-0.03</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="68">
         <v>0.02</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="68">
         <v>0.02</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="68">
         <v>-0.31</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="68">
         <v>0.02</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="68">
         <v>-0.12</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="68">
         <v>0.03</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="68">
         <v>-0.12</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="68">
         <v>0</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="68">
         <v>0.3</v>
       </c>
-      <c r="P20" s="70">
+      <c r="P20" s="69">
         <v>-0.53</v>
       </c>
-      <c r="Q20" s="69">
+      <c r="Q20" s="68">
         <v>0.05</v>
       </c>
-      <c r="R20" s="69">
+      <c r="R20" s="68">
         <v>0.15</v>
       </c>
-      <c r="S20" s="69">
+      <c r="S20" s="68">
         <v>-0.24</v>
       </c>
-      <c r="T20" s="69">
+      <c r="T20" s="68">
         <v>1</v>
       </c>
-      <c r="U20" s="69">
+      <c r="U20" s="68">
         <v>0.63</v>
       </c>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AF20" s="72"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AF20" s="71"/>
     </row>
     <row r="21" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="68">
         <v>0.09</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="68">
         <v>0.09</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="68">
         <v>0.06</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <v>0.01</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="68">
         <v>-0.01</v>
       </c>
-      <c r="G21" s="69">
+      <c r="G21" s="68">
         <v>-0.03</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="68">
         <v>-0.35</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="68">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="68">
         <v>0.03</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="68">
         <v>0.05</v>
       </c>
-      <c r="L21" s="69">
+      <c r="L21" s="68">
         <v>0.18</v>
       </c>
-      <c r="M21" s="69">
+      <c r="M21" s="68">
         <v>-0.06</v>
       </c>
-      <c r="N21" s="69">
+      <c r="N21" s="68">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O21" s="69">
+      <c r="O21" s="68">
         <v>0.47</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="68">
         <v>-0.51</v>
       </c>
-      <c r="Q21" s="70">
+      <c r="Q21" s="69">
         <v>0.39</v>
       </c>
-      <c r="R21" s="69">
+      <c r="R21" s="68">
         <v>-0.05</v>
       </c>
-      <c r="S21" s="69">
+      <c r="S21" s="68">
         <v>-0.34</v>
       </c>
-      <c r="T21" s="69">
+      <c r="T21" s="68">
         <v>0.63</v>
       </c>
-      <c r="U21" s="69">
+      <c r="U21" s="68">
         <v>1</v>
       </c>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AF21" s="72"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AF21" s="71"/>
     </row>
     <row r="22" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AF22" s="72"/>
+      <c r="AF22" s="71"/>
     </row>
     <row r="23" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AF23" s="71"/>
+      <c r="AF23" s="70"/>
     </row>
     <row r="24" spans="1:33" ht="62.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4884,7 +4884,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4918,7 +4918,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
@@ -5021,7 +5021,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5035,7 +5035,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -5053,12 +5053,12 @@
         <f>$D$9-D10</f>
         <v>6.0999999999999943E-2</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="72" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -5076,10 +5076,10 @@
         <f>$D$9-D11</f>
         <v>-0.12100000000000222</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
@@ -5097,10 +5097,10 @@
         <f>$D$9-D12</f>
         <v>-6.5000000000001279E-2</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -5118,10 +5118,10 @@
         <f t="shared" ref="F13:F14" si="5">$D$9-D13</f>
         <v>-6.3000000000002387E-2</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -5139,20 +5139,20 @@
         <f t="shared" si="5"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -5287,7 +5287,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -5307,7 +5307,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5339,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5349,7 +5349,7 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
@@ -5365,7 +5365,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
@@ -5398,7 +5398,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
@@ -5417,7 +5417,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -5449,7 +5449,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -5465,7 +5465,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -5481,7 +5481,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5491,7 +5491,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
@@ -5612,7 +5612,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="72" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -5622,7 +5622,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5636,12 +5636,12 @@
         <f>$D$43-D44</f>
         <v>0</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="72" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="6" t="s">
         <v>31</v>
       </c>
@@ -5655,10 +5655,10 @@
         <f t="shared" ref="F45:F49" si="17">$D$43-D45</f>
         <v>0</v>
       </c>
-      <c r="G45" s="12"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
@@ -5672,10 +5672,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="72"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -5689,10 +5689,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="72"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
@@ -5706,10 +5706,10 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="72"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
@@ -5723,7 +5723,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G49" s="12"/>
+      <c r="G49" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5753,17 +5753,17 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G1">
@@ -5771,87 +5771,87 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>20.231999999999999</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>21.175000000000001</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>20.835999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>19.949000000000002</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>20.614000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>20.32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>19.8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>20.678999999999998</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>20.327999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>19.861999999999998</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>20.628</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>20.29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>27.875</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>20.367000000000001</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>20.036000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G8">
@@ -5859,87 +5859,87 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>20.231000000000002</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>21.172999999999998</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>20.811</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>19.902000000000001</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>20.782</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>20.369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>20.07</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>20.608000000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>20.396999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>19.858000000000001</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>20.76</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>20.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>20.035</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>20.375</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>20.244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G15">
@@ -5947,72 +5947,72 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>20.14</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>21.213999999999999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>20.875</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>20.061</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>20.509</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>20.395</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>20.216000000000001</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>20.655999999999999</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>20.59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>19.821000000000002</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>20.7</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>20.687999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>19.699000000000002</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>20.547000000000001</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>20.411000000000001</v>
       </c>
     </row>
@@ -6038,399 +6038,399 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>20.231999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>19.954000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>19.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>19.861999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>27.875</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>19.8</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>20.297999999999998</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>-0.498</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>19.794</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>20.37</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>19.98</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>-0.18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>19.858000000000001</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>19.693999999999999</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>0.106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>19.8</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>20.321000000000002</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>-0.52200000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.338999999999999</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>19.986000000000001</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>-0.186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>19.445</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>20.068999999999999</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>-0.26900000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>19.864999999999998</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>19.93</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>-0.13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>20.056000000000001</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>-0.25600000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>19.338999999999999</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>19.699000000000002</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>-0.35899999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>19.931999999999999</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>-0.59299999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>19.038</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>19.256</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>19.417999999999999</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>-7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>19.501999999999999</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>-0.16300000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>19.506</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>19.038</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>19.599</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>-0.56100000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>19.436</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>-0.39800000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>19.289000000000001</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>-0.251</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>19.132999999999999</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <v>-9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>19.204999999999998</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>-0.16700000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>19.48</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>-0.442</v>
       </c>
     </row>
@@ -6451,302 +6451,302 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>20.239000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>19.885000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>20.059999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>19.856000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>20.035</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>19.856000000000002</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>20.007000000000001</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>-0.15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>20.056999999999999</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>20.300999999999998</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>-0.44400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>19.957000000000001</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>-0.1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>19.742999999999999</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>0.114</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>19.841999999999999</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>19.856000000000002</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>20.164000000000001</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>-0.308</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>19.399000000000001</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>20.582000000000001</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>-0.72599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>19.241</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>19.849</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>19.821999999999999</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>20.09</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>-0.23400000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>19.241</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="28"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>19.707000000000001</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>-0.46700000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>19.164999999999999</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>19.765999999999998</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>-0.52500000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>27.885000000000002</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>-8.6449999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="28">
         <v>19.347000000000001</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="28">
         <v>-0.107</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>19.538</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <v>-0.29699999999999999</v>
       </c>
     </row>
@@ -6767,366 +6767,366 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>20.16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>20.053000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>20.16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>19.821999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>19.699000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>19.699000000000002</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>19.943999999999999</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <v>-0.245</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>19.881</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>-0.182</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>20.038</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>-0.33900000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>20.111000000000001</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>-0.41199999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>19.882999999999999</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>-0.184</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>19.888000000000002</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <v>-0.189</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>19.699000000000002</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>20.259</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.375</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>20.428999999999998</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>-0.73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <v>19.483000000000001</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>0.216</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <v>19.722999999999999</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>-2.4E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="34">
         <v>19.841000000000001</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <v>-0.14199999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <v>19.884</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>-0.185</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="34">
         <v>19.375</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="34">
         <v>19.611000000000001</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="34">
         <v>-0.23699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="34">
         <v>19.48</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="34">
         <v>-0.106</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>19.137</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="34">
         <v>19.254999999999999</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="34">
         <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="34">
         <v>19.363</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="34">
         <v>19.382000000000001</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="34">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="34">
         <v>19.137</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="34">
         <v>19.437000000000001</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>-0.3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="34">
         <v>19.236999999999998</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <v>-0.10100000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="34">
         <v>19.431999999999999</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <v>-0.29499999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="34">
         <v>19.193000000000001</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="34">
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="34">
         <v>19.347999999999999</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="34">
         <v>-0.21199999999999999</v>
       </c>
     </row>
@@ -7147,302 +7147,302 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>20.21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>20.007000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>19.844000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>19.806000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>19.571999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>19.571999999999999</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>19.786999999999999</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>-0.215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="38">
         <v>19.850999999999999</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>-0.27900000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>20.024999999999999</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>-0.45300000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>19.786999999999999</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <v>-0.215</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>19.786000000000001</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="38">
         <v>-0.214</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>19.805</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>-0.23400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>19.571999999999999</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>19.908999999999999</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>-0.33800000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.326000000000001</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.245</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="40">
         <v>20.05</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="40">
         <v>-0.47799999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="40">
         <v>19.352</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="40">
         <v>0.22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="40">
         <v>19.599</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="40">
         <v>-2.7E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="40">
         <v>19.5</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="40">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>19.847999999999999</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="40">
         <v>-0.27600000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="40">
         <v>19.326000000000001</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <v>19.587</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="40">
         <v>-0.26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>19.568999999999999</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="40">
         <v>-0.24299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="40">
         <v>19.181000000000001</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="40">
         <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="40">
         <v>19.323</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="40">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <v>19.449000000000002</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="40">
         <v>-0.123</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="40">
         <v>19.170000000000002</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="40">
         <v>0.157</v>
       </c>
     </row>
@@ -7463,302 +7463,302 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="42">
         <v>20.495000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <v>19.875</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>19.824000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>19.846</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>19.635000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>19.635000000000002</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>19.692</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>19.872</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>-0.23699999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>20.146000000000001</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>-0.51100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>19.79</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>-0.156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>19.745999999999999</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>-0.112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <v>19.664000000000001</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <v>19.635000000000002</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <v>19.858000000000001</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <v>-0.224</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.152000000000001</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <v>19.901</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <v>-0.26600000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>19.350000000000001</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <v>19.91</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <v>-0.27500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <v>19.745999999999999</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="46">
         <v>-0.111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="46">
         <v>19.838000000000001</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="46">
         <v>-0.20300000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="46">
         <v>19.152000000000001</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="46"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <v>19.555</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="46">
         <v>-0.40300000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="46">
         <v>19.789000000000001</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="46">
         <v>-0.63700000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="46">
         <v>19.173999999999999</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="46">
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="46">
         <v>19.286000000000001</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="46">
         <v>-0.13400000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="46">
         <v>19.327000000000002</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="46">
         <v>-0.17499999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="46">
         <v>19.443999999999999</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="46">
         <v>-0.29199999999999998</v>
       </c>
     </row>
@@ -7779,302 +7779,302 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <v>20.146999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>19.864999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>19.802</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>19.753</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>19.785</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="50">
         <v>19.753</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="50">
         <v>19.780999999999999</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="50">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="50">
         <v>19.832999999999998</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="50">
         <v>-0.08</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <v>20.145</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <v>-0.39200000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="50">
         <v>19.841000000000001</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="50">
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="50">
         <v>19.824999999999999</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="50">
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="50">
         <v>19.655000000000001</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="50">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="52">
         <v>19.753</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="52"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="52">
         <v>20.100999999999999</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="52">
         <v>-0.34799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>19.361000000000001</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <v>20.198</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <v>-0.44500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="52">
         <v>19.382999999999999</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="52">
         <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="52">
         <v>19.774999999999999</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="52">
         <v>-2.3E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="52">
         <v>19.971</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="52">
         <v>-0.218</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="52">
         <v>19.68</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="52">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="52">
         <v>19.361000000000001</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="52">
         <v>19.463999999999999</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="52">
         <v>-0.10199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="52">
         <v>19.672000000000001</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="52">
         <v>-0.311</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="52">
         <v>19.367000000000001</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="52">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="52">
         <v>19.256</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="52">
         <v>0.106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="52">
         <v>19.646999999999998</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="52">
         <v>-0.28599999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="52">
         <v>19.449000000000002</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="52">
         <v>-8.6999999999999994E-2</v>
       </c>
     </row>
